--- a/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
+++ b/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujaggarwal/Downloads/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -620,6 +620,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,7 +932,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1090,11 +1096,11 @@
     </row>
     <row r="12" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28" t="s">
         <v>28</v>
@@ -1105,9 +1111,9 @@
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28" t="s">
         <v>47</v>
@@ -1118,9 +1124,9 @@
     </row>
     <row r="14" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="52"/>
@@ -1409,9 +1415,10 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="C29:I29"/>
+    <mergeCell ref="B12:D14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
+++ b/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -71,10 +71,6 @@
 (Rs.)</t>
   </si>
   <si>
-    <t>Installation
-Charges</t>
-  </si>
-  <si>
     <t>Upcountry
 Charges</t>
   </si>
@@ -186,6 +182,9 @@
   </si>
   <si>
     <t>{meta:total_upcountry_charges}</t>
+  </si>
+  <si>
+    <t>Service Charges</t>
   </si>
 </sst>
 </file>
@@ -929,22 +928,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -1073,7 +1073,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1082,13 +1082,13 @@
     <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="11"/>
@@ -1097,13 +1097,13 @@
     <row r="12" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="11"/>
@@ -1116,7 +1116,7 @@
       <c r="D13" s="59"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="34"/>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
@@ -1162,40 +1162,40 @@
         <v>12</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="31" t="s">
         <v>14</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="H17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>36</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1212,26 +1212,26 @@
     <row r="19" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="41">
         <v>5</v>
@@ -1239,7 +1239,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1259,7 +1259,7 @@
     <row r="22" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="41">
         <v>14</v>
@@ -1270,13 +1270,13 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="41">
         <v>0.5</v>
@@ -1287,13 +1287,13 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="41">
         <v>0.5</v>
@@ -1304,7 +1304,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1321,26 +1321,26 @@
     <row r="26" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1349,7 +1349,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1366,10 +1366,10 @@
     <row r="29" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
@@ -1378,45 +1378,34 @@
       <c r="H29" s="56"/>
       <c r="I29" s="57"/>
     </row>
-    <row r="30" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-    </row>
-    <row r="32" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
+      <c r="B31" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">
-    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="B12:D14"/>
   </mergeCells>

--- a/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
+++ b/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -928,15 +928,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="5" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
@@ -945,6 +945,8 @@
     <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1402,6 +1404,7 @@
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
     </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">

--- a/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
+++ b/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,33 +202,45 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -510,12 +522,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -621,10 +627,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -928,24 +940,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
     <col min="11" max="16384" width="14.5" hidden="1"/>
   </cols>
   <sheetData>
@@ -999,100 +1011,100 @@
     </row>
     <row r="5" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="11"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="11"/>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="11"/>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="11"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="11"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="11"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="11"/>
       <c r="I11" s="19"/>
     </row>
@@ -1103,42 +1115,42 @@
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="11"/>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="58"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="42"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="42"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1148,7 +1160,7 @@
     </row>
     <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1169,19 +1181,19 @@
       <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -1190,30 +1202,30 @@
       <c r="F17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="3"/>
@@ -1226,21 +1238,21 @@
       <c r="H19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="39">
         <v>5</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="32" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="11"/>
@@ -1260,10 +1272,10 @@
     </row>
     <row r="22" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="39">
         <v>14</v>
       </c>
       <c r="D22" s="11"/>
@@ -1271,7 +1283,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="40" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1280,7 +1292,7 @@
       <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="39">
         <v>0.5</v>
       </c>
       <c r="D23" s="11"/>
@@ -1288,7 +1300,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="40" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1297,7 +1309,7 @@
       <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="39">
         <v>0.5</v>
       </c>
       <c r="D24" s="11"/>
@@ -1305,7 +1317,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="40" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1322,7 +1334,7 @@
     </row>
     <row r="26" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="9"/>
@@ -1335,13 +1347,13 @@
       <c r="H26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="9"/>
@@ -1350,59 +1362,59 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="48"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>

--- a/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
+++ b/application/controllers/excel-templates/partner_invoice_Main_v3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -71,10 +71,6 @@
 (Rs.)</t>
   </si>
   <si>
-    <t>Installation
-Charges</t>
-  </si>
-  <si>
     <t>Upcountry
 Charges</t>
   </si>
@@ -186,13 +182,16 @@
   </si>
   <si>
     <t>{meta:total_upcountry_charges}</t>
+  </si>
+  <si>
+    <t>Service Charges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,33 +202,45 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -511,12 +522,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -622,10 +627,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,22 +940,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -964,7 +978,7 @@
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -997,146 +1011,146 @@
     </row>
     <row r="5" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="11"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="11"/>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="11"/>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="11"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="23"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="11"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="23"/>
+      <c r="F10" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="21"/>
       <c r="H10" s="11"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="29" t="s">
-        <v>29</v>
+      <c r="B11" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="11"/>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="21"/>
       <c r="H12" s="11"/>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="58"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="42"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="42"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1146,14 +1160,14 @@
     </row>
     <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
@@ -1162,84 +1176,84 @@
         <v>12</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="29" t="s">
         <v>14</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="H17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="41">
+      <c r="B20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="39">
         <v>5</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="34" t="s">
-        <v>39</v>
+      <c r="F20" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1258,10 +1272,10 @@
     </row>
     <row r="22" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-      <c r="B22" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="41">
+      <c r="B22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="39">
         <v>14</v>
       </c>
       <c r="D22" s="11"/>
@@ -1269,16 +1283,16 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="42" t="s">
-        <v>41</v>
+      <c r="I22" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="41">
+        <v>18</v>
+      </c>
+      <c r="C23" s="39">
         <v>0.5</v>
       </c>
       <c r="D23" s="11"/>
@@ -1286,16 +1300,16 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="42" t="s">
-        <v>42</v>
+      <c r="I23" s="40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="41">
+        <v>19</v>
+      </c>
+      <c r="C24" s="39">
         <v>0.5</v>
       </c>
       <c r="D24" s="11"/>
@@ -1303,8 +1317,8 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="42" t="s">
-        <v>42</v>
+      <c r="I24" s="40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -1320,27 +1334,27 @@
     </row>
     <row r="26" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="43" t="s">
-        <v>21</v>
+      <c r="B26" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="45" t="s">
-        <v>22</v>
+      <c r="B27" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1348,75 +1362,65 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="46" t="s">
-        <v>44</v>
+      <c r="I27" s="44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="48"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
-    </row>
-    <row r="32" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-    </row>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="3">
-    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="C29:I29"/>
     <mergeCell ref="B12:D14"/>
   </mergeCells>
